--- a/Documents/Configuration Items List v3.1.xlsx
+++ b/Documents/Configuration Items List v3.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>Configuration Item Name</t>
   </si>
@@ -85,15 +85,9 @@
     <t>Database - SBA API</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Bugs</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>PivotalTracker</t>
   </si>
   <si>
@@ -121,10 +115,10 @@
     <t>Balsamiq/GitHub</t>
   </si>
   <si>
+    <t>Estimation Record</t>
+  </si>
+  <si>
     <t>CI LIST v.3.1</t>
-  </si>
-  <si>
-    <t>Estimation Record</t>
   </si>
 </sst>
 </file>
@@ -164,18 +158,16 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,22 +286,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -616,23 +608,23 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21" style="7" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -641,19 +633,19 @@
     </row>
     <row r="2" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -722,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -742,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -762,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -782,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -802,10 +794,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="5">
         <v>42174</v>
@@ -842,19 +834,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D12" s="5">
-        <v>42170</v>
+        <v>42174</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
@@ -977,15 +969,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>23</v>
+      <c r="C19" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D19" s="5">
         <v>42157</v>
@@ -1002,19 +994,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="5">
+        <v>42174</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1022,13 +1014,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>25</v>
+      <c r="D21" s="5">
+        <v>42165</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>6</v>
